--- a/final_summary.xlsx
+++ b/final_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sagnik/work/construct_barley_transcripts_with_SNPs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5507F6CA-C511-384E-8FD0-BE45F5DF2751}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83510CDF-67DB-1F48-B8FA-832DBC2C625E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C3CD6E92-0CEC-F242-9BF2-2DE5AE77350C}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="24000" xr2:uid="{C3CD6E92-0CEC-F242-9BF2-2DE5AE77350C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -609,7 +609,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
